--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4516.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4516.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4516</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mosaddeck Hossain</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -960,7 +1025,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1060,7 +1124,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1160,7 +1223,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>19/05/2017</t>
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1416,7 +1478,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -1424,7 +1485,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1476,7 +1537,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1528,7 +1589,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1580,7 +1641,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1632,7 +1693,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1684,7 +1745,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1736,7 +1797,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1788,7 +1849,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1840,7 +1901,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1892,7 +1953,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1944,7 +2005,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1984,7 +2045,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -1992,7 +2052,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2044,7 +2104,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2096,7 +2156,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2148,7 +2208,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2200,7 +2260,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2252,7 +2312,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2304,7 +2364,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2356,7 +2416,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2408,7 +2468,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2460,7 +2520,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2500,7 +2560,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>20/07/2021</t>
@@ -2508,7 +2567,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2548,7 +2607,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>13/07/2022</t>
@@ -2556,7 +2614,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2608,7 +2666,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2648,7 +2706,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>05/08/2022</t>
@@ -2656,7 +2713,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2695,7 +2752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2717,7 +2774,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2754,7 +2811,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2791,7 +2848,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2828,7 +2885,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2865,7 +2922,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2902,7 +2959,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2939,7 +2996,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2976,7 +3033,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3013,7 +3070,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3050,7 +3107,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3087,7 +3144,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3124,7 +3181,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3161,7 +3218,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3198,7 +3255,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3235,7 +3292,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3272,7 +3329,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3309,7 +3366,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3346,7 +3403,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3383,7 +3440,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3420,7 +3477,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3457,7 +3514,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3494,7 +3551,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3531,7 +3588,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3568,7 +3625,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3605,7 +3662,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3642,7 +3699,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3679,7 +3736,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3716,7 +3773,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3753,7 +3810,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3790,7 +3847,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3827,7 +3884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3864,7 +3921,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3901,7 +3958,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3938,7 +3995,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3975,7 +4032,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4012,7 +4069,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4049,7 +4106,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4086,7 +4143,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4123,7 +4180,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4160,7 +4217,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4197,7 +4254,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4234,7 +4291,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4260,6 +4317,523 @@
       <c r="G42" t="inlineStr">
         <is>
           <t>1/67</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6.94%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.41%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4307</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9.29%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13.36%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.24%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.98%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.07%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.82%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4516.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4516.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4407,15 +4408,456 @@
           <t>4295</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.41%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4307</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9.29%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13.36%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.24%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.98%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.07%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.82%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4423,29 +4865,12 @@
           <t>4296</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.41%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4455,13 +4880,6 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4471,13 +4889,6 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4485,29 +4896,12 @@
           <t>4314</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.29%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4517,13 +4911,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4531,27 +4918,14 @@
           <t>4335</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>13.36%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4561,29 +4935,12 @@
           <t>4345</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.05%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4591,29 +4948,12 @@
           <t>4349</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.24%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4623,13 +4963,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4639,13 +4972,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4655,13 +4981,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4669,29 +4988,12 @@
           <t>4465</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>26.98%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4699,29 +5001,12 @@
           <t>4477</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.81%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4729,29 +5014,12 @@
           <t>4479</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.07%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4759,17 +5027,12 @@
           <t>4481</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>8</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4777,15 +5040,14 @@
           <t>4611</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4795,27 +5057,14 @@
           <t>4616</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>6</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7.82%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4825,15 +5074,14 @@
           <t>4626</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4516.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4516.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1026,6 +1024,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -1038,7 +1037,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1125,6 +1124,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -1224,6 +1224,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>19/05/2017</t>
@@ -1479,6 +1480,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -2046,6 +2048,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -2561,6 +2564,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>20/07/2021</t>
@@ -2608,6 +2612,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>13/07/2022</t>
@@ -2707,6 +2712,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>05/08/2022</t>
@@ -4324,768 +4330,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4199</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6.94%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.41%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4307</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4311</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4314</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.29%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>13.36%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4345</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.05%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.24%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>26.98%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4477</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.81%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.07%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7.82%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4198</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4307</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4311</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4314</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4345</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4477</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>